--- a/src/test/resources/testdata/Common/ProviderData.xlsx
+++ b/src/test/resources/testdata/Common/ProviderData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gnana\IdeaProjects\AssuredHealth\src\test\resources\testdata\Common\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gnana\Migration\src\test\resources\testdata\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>EMAIL</t>
   </si>
@@ -49,6 +49,15 @@
   </si>
   <si>
     <t>789ght</t>
+  </si>
+  <si>
+    <t>qazdqsd@lk.com</t>
+  </si>
+  <si>
+    <t>sdkjf1231</t>
+  </si>
+  <si>
+    <t>hjkl@ik.com</t>
   </si>
 </sst>
 </file>
@@ -58,7 +67,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,14 +85,6 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="14"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -112,10 +113,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
@@ -397,7 +397,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
@@ -416,7 +416,7 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -424,7 +424,7 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -432,7 +432,7 @@
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -440,7 +440,7 @@
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -448,10 +448,23 @@
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="2"/>
+      <c r="A6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="I11" s="3"/>
+      <c r="I11" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -459,8 +472,10 @@
     <hyperlink ref="A2" r:id="rId2"/>
     <hyperlink ref="A4" r:id="rId3"/>
     <hyperlink ref="A5" r:id="rId4"/>
+    <hyperlink ref="A6" r:id="rId5"/>
+    <hyperlink ref="A7" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>